--- a/jointAngles.xlsx
+++ b/jointAngles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DJDuong\Documents\Uni\41013 Robotics\Assignments\2\snl_gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F432E5-A95C-4D5B-9F7D-0A37E0ACE486}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D5F241-A9EC-48A0-8095-B793D8824CB2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6250" xr2:uid="{52692B1C-04E0-4039-910B-1A245068ADD0}"/>
   </bookViews>
@@ -373,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5269056-8266-4850-9B5D-ED3216458E0E}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,48 +450,48 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>9.203884727313847E-3</v>
+        <v>-0.1119805975156518</v>
       </c>
       <c r="B4">
-        <v>1.3821166898849626</v>
+        <v>1.3882526130365052</v>
       </c>
       <c r="C4">
-        <v>-9.3572828061024113E-2</v>
+        <v>-0.45866025557780671</v>
       </c>
       <c r="D4">
-        <v>1.5416506918250694</v>
+        <v>1.538582730249298</v>
       </c>
       <c r="E4">
-        <v>0.48320394818397699</v>
+        <v>-0.38809713933506723</v>
       </c>
       <c r="F4">
-        <v>-1.3560390164909069</v>
+        <v>-1.4572817484913592</v>
       </c>
       <c r="G4">
-        <v>2.0064468705544187</v>
+        <v>1.4572817484913592</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-0.5568350260024878</v>
+        <v>-0.51388356394168977</v>
       </c>
       <c r="B5">
-        <v>1.5247769031583274</v>
+        <v>1.5462526341887264</v>
       </c>
       <c r="C5">
-        <v>-0.64887387327562618</v>
+        <v>-0.89124283776155755</v>
       </c>
       <c r="D5">
-        <v>1.1520195717021164</v>
+        <v>1.1535535524900022</v>
       </c>
       <c r="E5">
-        <v>-1.2302525918842842</v>
+        <v>-1.3038836697027949</v>
       </c>
       <c r="F5">
-        <v>-1.1658253987930873</v>
+        <v>-1.3161555160058802</v>
       </c>
       <c r="G5">
-        <v>0.9418642037617837</v>
+        <v>1.0231651855197226</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
